--- a/kadai1/kadai1.xlsx
+++ b/kadai1/kadai1.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tea/development/tus_school/junior/情報工学実験3/kadai1/day1/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tea/development/tus_school/junior/情報工学実験3/kadai1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D77AC185-4582-C148-88D2-7A2CF773FC66}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EBE7CD5-D796-F74B-AC69-2D1D51BF0F5E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1920" yWindow="3420" windowWidth="28300" windowHeight="17440" xr2:uid="{977E804A-D011-D241-AC48-2B3264A59814}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -623,7 +623,7 @@
   <dimension ref="B1:O23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>

--- a/kadai1/kadai1.xlsx
+++ b/kadai1/kadai1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tea/development/tus_school/junior/情報工学実験3/kadai1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EBE7CD5-D796-F74B-AC69-2D1D51BF0F5E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5806D66C-D5A3-5B48-91A2-854D85C12E31}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1920" yWindow="3420" windowWidth="28300" windowHeight="17440" xr2:uid="{977E804A-D011-D241-AC48-2B3264A59814}"/>
+    <workbookView xWindow="5320" yWindow="2660" windowWidth="28300" windowHeight="17440" xr2:uid="{977E804A-D011-D241-AC48-2B3264A59814}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,30 +32,8 @@
 </workbook>
 </file>
 
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="1">
-    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLDAPR" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
-          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <cellMetadata count="1">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-  </cellMetadata>
-</metadata>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="31">
   <si>
     <t>問題3</t>
     <rPh sb="0" eb="2">
@@ -193,25 +171,6 @@
     <rPh sb="0" eb="2">
       <t xml:space="preserve">モンダイ </t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>問題5</t>
-    <rPh sb="0" eb="2">
-      <t xml:space="preserve">モンダイ </t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Ci</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>i</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>C=</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -620,10 +579,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20C21A2B-7827-8C41-A4A7-805A441BFEC3}">
-  <dimension ref="B1:O23"/>
+  <dimension ref="B1:N23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -633,23 +592,20 @@
     <col min="11" max="11" width="11.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:15">
+    <row r="1" spans="2:14">
       <c r="B1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="2:15">
+    <row r="2" spans="2:14">
       <c r="B2" t="s">
         <v>1</v>
       </c>
       <c r="G2" t="s">
         <v>2</v>
       </c>
-      <c r="N2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="3" spans="2:15">
+    </row>
+    <row r="3" spans="2:14">
       <c r="B3" s="1" t="s">
         <v>11</v>
       </c>
@@ -668,14 +624,8 @@
       <c r="K3" t="s">
         <v>28</v>
       </c>
-      <c r="N3" t="s">
-        <v>33</v>
-      </c>
-      <c r="O3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4" spans="2:15">
+    </row>
+    <row r="4" spans="2:14">
       <c r="B4" s="1">
         <v>1</v>
       </c>
@@ -694,11 +644,8 @@
       <c r="K4">
         <v>0</v>
       </c>
-      <c r="N4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="2:15">
+    </row>
+    <row r="5" spans="2:14">
       <c r="B5" s="1">
         <v>2</v>
       </c>
@@ -717,11 +664,8 @@
       <c r="K5" s="6">
         <v>6.25E-2</v>
       </c>
-      <c r="N5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="2:15">
+    </row>
+    <row r="6" spans="2:14">
       <c r="B6" s="1">
         <v>3</v>
       </c>
@@ -740,11 +684,8 @@
       <c r="K6" s="6">
         <v>0.1875</v>
       </c>
-      <c r="N6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="2:15">
+    </row>
+    <row r="7" spans="2:14">
       <c r="B7" s="1">
         <v>4</v>
       </c>
@@ -763,11 +704,8 @@
       <c r="K7" s="6">
         <v>0.25</v>
       </c>
-      <c r="N7">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="2:15">
+    </row>
+    <row r="8" spans="2:14">
       <c r="B8" s="1">
         <v>5</v>
       </c>
@@ -786,11 +724,8 @@
       <c r="K8" s="6">
         <v>0.4375</v>
       </c>
-      <c r="N8">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="2:15">
+    </row>
+    <row r="9" spans="2:14">
       <c r="B9" s="1">
         <v>6</v>
       </c>
@@ -809,11 +744,8 @@
       <c r="K9" s="6">
         <v>6.25E-2</v>
       </c>
-      <c r="N9">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="2:15">
+    </row>
+    <row r="10" spans="2:14">
       <c r="B10" s="1">
         <v>7</v>
       </c>
@@ -833,7 +765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="2:15">
+    <row r="11" spans="2:14">
       <c r="B11" s="1">
         <v>8</v>
       </c>
@@ -848,7 +780,7 @@
       </c>
       <c r="K11" s="6"/>
     </row>
-    <row r="12" spans="2:15">
+    <row r="12" spans="2:14">
       <c r="G12" s="1">
         <v>9</v>
       </c>
@@ -856,15 +788,9 @@
         <v>21</v>
       </c>
       <c r="K12" s="6"/>
-      <c r="N12" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="O12" cm="1">
-        <f t="array" ref="O12">AVERAGE(O4:O9+7/15+6/10)</f>
-        <v>1.0666666666666667</v>
-      </c>
-    </row>
-    <row r="13" spans="2:15">
+      <c r="N12" s="7"/>
+    </row>
+    <row r="13" spans="2:14">
       <c r="G13" s="1">
         <v>10</v>
       </c>
@@ -873,7 +799,7 @@
       </c>
       <c r="K13" s="6"/>
     </row>
-    <row r="14" spans="2:15">
+    <row r="14" spans="2:14">
       <c r="B14" t="s">
         <v>30</v>
       </c>
@@ -885,7 +811,7 @@
       </c>
       <c r="K14" s="6"/>
     </row>
-    <row r="15" spans="2:15">
+    <row r="15" spans="2:14">
       <c r="B15" t="s">
         <v>29</v>
       </c>
@@ -900,7 +826,7 @@
       </c>
       <c r="K15" s="6"/>
     </row>
-    <row r="16" spans="2:15">
+    <row r="16" spans="2:14">
       <c r="B16">
         <v>0</v>
       </c>

--- a/kadai1/kadai1.xlsx
+++ b/kadai1/kadai1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tea/development/tus_school/junior/情報工学実験3/kadai1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5806D66C-D5A3-5B48-91A2-854D85C12E31}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1007F38-72EA-9240-B00D-029F3DDEB634}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5320" yWindow="2660" windowWidth="28300" windowHeight="17440" xr2:uid="{977E804A-D011-D241-AC48-2B3264A59814}"/>
   </bookViews>
